--- a/Code/Results/Cases/Case_5_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_73/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.13997182844917</v>
+        <v>18.91491841113799</v>
       </c>
       <c r="C2">
-        <v>13.68555941304396</v>
+        <v>8.934646501143355</v>
       </c>
       <c r="D2">
-        <v>5.224514808835626</v>
+        <v>8.255381932655293</v>
       </c>
       <c r="E2">
-        <v>7.041466551349157</v>
+        <v>12.38757432589063</v>
       </c>
       <c r="F2">
-        <v>21.38680860400816</v>
+        <v>33.69482902560634</v>
       </c>
       <c r="I2">
-        <v>13.94773125311326</v>
+        <v>24.77953575933487</v>
       </c>
       <c r="J2">
-        <v>5.48990039356756</v>
+        <v>9.623628999666686</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.960725259097176</v>
+        <v>11.53494986194531</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.70977017227792</v>
+        <v>25.83468950717231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.5168818943312</v>
+        <v>18.31392817680902</v>
       </c>
       <c r="C3">
-        <v>12.93209561407521</v>
+        <v>8.553639185446668</v>
       </c>
       <c r="D3">
-        <v>5.116799005549691</v>
+        <v>8.248553358349806</v>
       </c>
       <c r="E3">
-        <v>7.099164269638722</v>
+        <v>12.42236024627969</v>
       </c>
       <c r="F3">
-        <v>21.29002178973667</v>
+        <v>33.82991092919634</v>
       </c>
       <c r="I3">
-        <v>14.30973498237867</v>
+        <v>24.93851085218991</v>
       </c>
       <c r="J3">
-        <v>5.559662106951338</v>
+        <v>9.64899625266407</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.706771278637348</v>
+        <v>11.50412389053924</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.76771529276528</v>
+        <v>25.95752624055029</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46055402777285</v>
+        <v>17.93549525465844</v>
       </c>
       <c r="C4">
-        <v>12.44675115057795</v>
+        <v>8.30971540045676</v>
       </c>
       <c r="D4">
-        <v>5.050978342797593</v>
+        <v>8.245132061207691</v>
       </c>
       <c r="E4">
-        <v>7.137485320460224</v>
+        <v>12.4451525064107</v>
       </c>
       <c r="F4">
-        <v>21.25597124198291</v>
+        <v>33.92187426758482</v>
       </c>
       <c r="I4">
-        <v>14.54522201125602</v>
+        <v>25.04180605976765</v>
       </c>
       <c r="J4">
-        <v>5.603733052208614</v>
+        <v>9.665372723096034</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.548953238297863</v>
+        <v>11.48640380535873</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.82248981071058</v>
+        <v>26.03951817855495</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01497711702432</v>
+        <v>17.77912295581067</v>
       </c>
       <c r="C5">
-        <v>12.24335618246869</v>
+        <v>8.207902639933087</v>
       </c>
       <c r="D5">
-        <v>5.024263485636663</v>
+        <v>8.24393306013755</v>
       </c>
       <c r="E5">
-        <v>7.153817202705258</v>
+        <v>12.45480160939279</v>
       </c>
       <c r="F5">
-        <v>21.24824059462759</v>
+        <v>33.96161145667694</v>
       </c>
       <c r="I5">
-        <v>14.64437061004805</v>
+        <v>25.0853296821204</v>
       </c>
       <c r="J5">
-        <v>5.622010660096147</v>
+        <v>9.67224826033255</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.484250340515891</v>
+        <v>11.47949057106103</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.84940335647305</v>
+        <v>26.07457817576491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94007385537575</v>
+        <v>17.7530336602512</v>
       </c>
       <c r="C6">
-        <v>12.20924697756016</v>
+        <v>8.190854204261546</v>
       </c>
       <c r="D6">
-        <v>5.01983482752183</v>
+        <v>8.24374579101697</v>
       </c>
       <c r="E6">
-        <v>7.156571988592704</v>
+        <v>12.45642566087164</v>
       </c>
       <c r="F6">
-        <v>21.24732094705386</v>
+        <v>33.96834614808487</v>
       </c>
       <c r="I6">
-        <v>14.66102289565221</v>
+        <v>25.09264313726597</v>
       </c>
       <c r="J6">
-        <v>5.625065077291707</v>
+        <v>9.673402155735683</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.473485466950669</v>
+        <v>11.4783613477644</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.8541428916352</v>
+        <v>26.08049924515217</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45460614171694</v>
+        <v>17.93339480742507</v>
       </c>
       <c r="C7">
-        <v>12.44403067314004</v>
+        <v>8.308351942563723</v>
       </c>
       <c r="D7">
-        <v>5.050617584011606</v>
+        <v>8.245115099118779</v>
       </c>
       <c r="E7">
-        <v>7.137702695351375</v>
+        <v>12.44528117483152</v>
       </c>
       <c r="F7">
-        <v>21.25584242277327</v>
+        <v>33.92240103093038</v>
       </c>
       <c r="I7">
-        <v>14.54654643335171</v>
+        <v>25.04238724358955</v>
       </c>
       <c r="J7">
-        <v>5.603978252044452</v>
+        <v>9.665464630331805</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.548082098245263</v>
+        <v>11.48630931911178</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.82283448966183</v>
+        <v>26.03998434463247</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59267478810397</v>
+        <v>18.70977401060531</v>
       </c>
       <c r="C8">
-        <v>13.43053094011512</v>
+        <v>8.805402187622111</v>
       </c>
       <c r="D8">
-        <v>5.187325005212128</v>
+        <v>8.252868063862104</v>
       </c>
       <c r="E8">
-        <v>7.060752500258975</v>
+        <v>12.39927133039409</v>
       </c>
       <c r="F8">
-        <v>21.34803160458201</v>
+        <v>33.73952826208894</v>
       </c>
       <c r="I8">
-        <v>14.06971879202552</v>
+        <v>24.83317111780611</v>
       </c>
       <c r="J8">
-        <v>5.51370199667925</v>
+        <v>9.632209772939254</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.873602486362823</v>
+        <v>11.52407314941298</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.7256239864596</v>
+        <v>25.8756774466936</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.31556538852509</v>
+        <v>20.14910027797543</v>
       </c>
       <c r="C9">
-        <v>15.18170721811132</v>
+        <v>9.697246936768098</v>
       </c>
       <c r="D9">
-        <v>5.456751320715784</v>
+        <v>8.274138136974601</v>
       </c>
       <c r="E9">
-        <v>6.933398733637089</v>
+        <v>12.32039421650001</v>
       </c>
       <c r="F9">
-        <v>21.73997805762016</v>
+        <v>33.45282663768925</v>
       </c>
       <c r="I9">
-        <v>13.24676534289414</v>
+        <v>24.46796438094956</v>
       </c>
       <c r="J9">
-        <v>5.346136770194952</v>
+        <v>9.573323843198493</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.493620157934123</v>
+        <v>11.60751024282131</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69781559260498</v>
+        <v>25.60579458203551</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77023469429199</v>
+        <v>21.14589348913645</v>
       </c>
       <c r="C10">
-        <v>16.35377804673884</v>
+        <v>10.29791472249717</v>
       </c>
       <c r="D10">
-        <v>5.654040059081429</v>
+        <v>8.293387824673513</v>
       </c>
       <c r="E10">
-        <v>6.855044972608063</v>
+        <v>12.26932443426499</v>
       </c>
       <c r="F10">
-        <v>22.16889147553551</v>
+        <v>33.28645215165177</v>
       </c>
       <c r="I10">
-        <v>12.72241557642774</v>
+        <v>24.2270738735035</v>
       </c>
       <c r="J10">
-        <v>5.2282829038164</v>
+        <v>9.533878090855264</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.934053703739515</v>
+        <v>11.67425736422477</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.7908923211125</v>
+        <v>25.4396738810173</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.82731897079418</v>
+        <v>21.58441245985475</v>
       </c>
       <c r="C11">
-        <v>16.86186936766452</v>
+        <v>10.55867527605942</v>
       </c>
       <c r="D11">
-        <v>5.74336819792377</v>
+        <v>8.302914214878539</v>
       </c>
       <c r="E11">
-        <v>6.822909668138045</v>
+        <v>12.24757791702861</v>
       </c>
       <c r="F11">
-        <v>22.39687380125334</v>
+        <v>33.22046178794699</v>
       </c>
       <c r="I11">
-        <v>12.50457133961275</v>
+        <v>24.12343412451679</v>
       </c>
       <c r="J11">
-        <v>5.175688527586636</v>
+        <v>9.51675382584034</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.130469045953339</v>
+        <v>11.70574246609774</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.86085199115148</v>
+        <v>25.37114145514657</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.21915365852754</v>
+        <v>21.74819509582464</v>
       </c>
       <c r="C12">
-        <v>17.05065785738765</v>
+        <v>10.65558005546374</v>
       </c>
       <c r="D12">
-        <v>5.777113165492707</v>
+        <v>8.306630672125207</v>
       </c>
       <c r="E12">
-        <v>6.811264115661861</v>
+        <v>12.23955609640403</v>
       </c>
       <c r="F12">
-        <v>22.48809061196824</v>
+        <v>33.19687360181626</v>
       </c>
       <c r="I12">
-        <v>12.425381044901</v>
+        <v>24.08504278387209</v>
       </c>
       <c r="J12">
-        <v>5.155908218801597</v>
+        <v>9.510386571330375</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.204234031067465</v>
+        <v>11.71782070112405</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.89154987553529</v>
+        <v>25.34620657256542</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.13513962521257</v>
+        <v>21.71302464548932</v>
       </c>
       <c r="C13">
-        <v>17.010159633626</v>
+        <v>10.63479231789674</v>
       </c>
       <c r="D13">
-        <v>5.769849531490133</v>
+        <v>8.305825444816689</v>
       </c>
       <c r="E13">
-        <v>6.813748600111611</v>
+        <v>12.24127426834521</v>
       </c>
       <c r="F13">
-        <v>22.46822583793723</v>
+        <v>33.20189132640731</v>
       </c>
       <c r="I13">
-        <v>12.44228346965858</v>
+        <v>24.09327302402257</v>
       </c>
       <c r="J13">
-        <v>5.160162383547394</v>
+        <v>9.511752663873196</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.188375358420796</v>
+        <v>11.71521261431793</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.88474785621719</v>
+        <v>25.35153144160323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.8597243936896</v>
+        <v>21.59793323374797</v>
       </c>
       <c r="C14">
-        <v>16.87747355363559</v>
+        <v>10.5666847850996</v>
       </c>
       <c r="D14">
-        <v>5.746146167838067</v>
+        <v>8.303217794804791</v>
       </c>
       <c r="E14">
-        <v>6.82194097882619</v>
+        <v>12.24691368864826</v>
       </c>
       <c r="F14">
-        <v>22.40427951494356</v>
+        <v>33.21849305850449</v>
       </c>
       <c r="I14">
-        <v>12.49798806734782</v>
+        <v>24.12025851283458</v>
       </c>
       <c r="J14">
-        <v>5.174058524817953</v>
+        <v>9.516227639609728</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.136550266357872</v>
+        <v>11.70673306672036</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.86329192729647</v>
+        <v>25.36906963955259</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.68992598845752</v>
+        <v>21.52713658884095</v>
       </c>
       <c r="C15">
-        <v>16.79572874810926</v>
+        <v>10.52472620372483</v>
       </c>
       <c r="D15">
-        <v>5.731615942118242</v>
+        <v>8.301634681454495</v>
       </c>
       <c r="E15">
-        <v>6.827027792693118</v>
+        <v>12.2503957358686</v>
       </c>
       <c r="F15">
-        <v>22.36575111585505</v>
+        <v>33.22884474098317</v>
       </c>
       <c r="I15">
-        <v>12.53254939060533</v>
+        <v>24.13689923136725</v>
       </c>
       <c r="J15">
-        <v>5.182587710903657</v>
+        <v>9.518983955311858</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.104724783089781</v>
+        <v>11.70155917705179</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.8507040517592</v>
+        <v>25.37994486464943</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.69996213285285</v>
+        <v>21.11692354978585</v>
       </c>
       <c r="C16">
-        <v>16.3200673790002</v>
+        <v>10.28061821397793</v>
       </c>
       <c r="D16">
-        <v>5.648191941218363</v>
+        <v>8.292780599729348</v>
       </c>
       <c r="E16">
-        <v>6.85721727063923</v>
+        <v>12.27077546859635</v>
       </c>
       <c r="F16">
-        <v>22.15466761346044</v>
+        <v>33.29096044843546</v>
       </c>
       <c r="I16">
-        <v>12.73709541942687</v>
+        <v>24.23396657297815</v>
       </c>
       <c r="J16">
-        <v>5.231739684676486</v>
+        <v>9.535013650970969</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.921134052489474</v>
+        <v>11.67222181789633</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.78689626353075</v>
+        <v>25.4442946603559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.0774704295942</v>
+        <v>20.86135177960076</v>
       </c>
       <c r="C17">
-        <v>16.02183003789314</v>
+        <v>10.12763408288384</v>
       </c>
       <c r="D17">
-        <v>5.596890724544719</v>
+        <v>8.287544870600696</v>
       </c>
       <c r="E17">
-        <v>6.876649110360759</v>
+        <v>12.28365787117881</v>
       </c>
       <c r="F17">
-        <v>22.03371111635257</v>
+        <v>33.3315543719741</v>
       </c>
       <c r="I17">
-        <v>12.86809446209194</v>
+        <v>24.29503641491029</v>
       </c>
       <c r="J17">
-        <v>5.262146395633213</v>
+        <v>9.545056926354379</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.807462320835857</v>
+        <v>11.65450750014825</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.75499533397422</v>
+        <v>25.48557701027143</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.71381746719688</v>
+        <v>20.71295533514533</v>
       </c>
       <c r="C18">
-        <v>15.84792989765047</v>
+        <v>10.03846851759531</v>
       </c>
       <c r="D18">
-        <v>5.567345283936375</v>
+        <v>8.284605959948788</v>
       </c>
       <c r="E18">
-        <v>6.888154789182474</v>
+        <v>12.291207328144</v>
       </c>
       <c r="F18">
-        <v>21.9672254216971</v>
+        <v>33.35581499631734</v>
       </c>
       <c r="I18">
-        <v>12.94536625286942</v>
+        <v>24.33072149140822</v>
       </c>
       <c r="J18">
-        <v>5.279732001434958</v>
+        <v>9.550910749540924</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.741712789995562</v>
+        <v>11.64442461047126</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.73923283689637</v>
+        <v>25.50998355900397</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.58972380251699</v>
+        <v>20.66247484307321</v>
       </c>
       <c r="C19">
-        <v>15.78864503030686</v>
+        <v>10.00807856747031</v>
       </c>
       <c r="D19">
-        <v>5.557335805708863</v>
+        <v>8.283623403671186</v>
       </c>
       <c r="E19">
-        <v>6.892106365720185</v>
+        <v>12.29378747697715</v>
       </c>
       <c r="F19">
-        <v>21.94523929679077</v>
+        <v>33.3641856602067</v>
       </c>
       <c r="I19">
-        <v>12.97185047331199</v>
+        <v>24.34289990296447</v>
       </c>
       <c r="J19">
-        <v>5.285703058598896</v>
+        <v>9.55290602907375</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.719389374744475</v>
+        <v>11.64102908127452</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.73433281151424</v>
+        <v>25.51836074916314</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14431583148451</v>
+        <v>20.88870352914691</v>
       </c>
       <c r="C20">
-        <v>16.0538224453099</v>
+        <v>10.14404126307671</v>
       </c>
       <c r="D20">
-        <v>5.602355955787327</v>
+        <v>8.288094726798887</v>
       </c>
       <c r="E20">
-        <v>6.874546375039118</v>
+        <v>12.28227204806392</v>
       </c>
       <c r="F20">
-        <v>22.04626662439258</v>
+        <v>33.32713863217816</v>
       </c>
       <c r="I20">
-        <v>12.85394797459358</v>
+        <v>24.28847753712066</v>
       </c>
       <c r="J20">
-        <v>5.258899637885239</v>
+        <v>9.543979816987532</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.819601377090319</v>
+        <v>11.6563822986307</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.75812186956698</v>
+        <v>25.48111387941864</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.9408492851255</v>
+        <v>21.631801064858</v>
       </c>
       <c r="C21">
-        <v>16.91654477253984</v>
+        <v>10.58673985928057</v>
       </c>
       <c r="D21">
-        <v>5.753110795883573</v>
+        <v>8.303980779516156</v>
       </c>
       <c r="E21">
-        <v>6.819520316464008</v>
+        <v>12.24525147418075</v>
       </c>
       <c r="F21">
-        <v>22.42292834624989</v>
+        <v>33.21357865302402</v>
       </c>
       <c r="I21">
-        <v>12.48153379221765</v>
+        <v>24.11230901947842</v>
       </c>
       <c r="J21">
-        <v>5.169973284886911</v>
+        <v>9.514910050770844</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.151789529757917</v>
+        <v>11.70921954166622</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.86947809135545</v>
+        <v>25.36389060886557</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.06572597965998</v>
+        <v>22.10414843704799</v>
       </c>
       <c r="C22">
-        <v>17.45931897790474</v>
+        <v>10.86533099663491</v>
       </c>
       <c r="D22">
-        <v>5.851153483837382</v>
+        <v>8.314997874977486</v>
       </c>
       <c r="E22">
-        <v>6.786618091430917</v>
+        <v>12.22229835810298</v>
       </c>
       <c r="F22">
-        <v>22.69763324116149</v>
+        <v>33.14752931260674</v>
       </c>
       <c r="I22">
-        <v>12.25757709324062</v>
+        <v>24.00215523971755</v>
       </c>
       <c r="J22">
-        <v>5.112642433029592</v>
+        <v>9.496594930592568</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.365302902984393</v>
+        <v>11.7446553746864</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.96687166081909</v>
+        <v>25.29320774303743</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46983033799773</v>
+        <v>21.85330431492748</v>
       </c>
       <c r="C23">
-        <v>17.1715570592283</v>
+        <v>10.71763690784685</v>
       </c>
       <c r="D23">
-        <v>5.798877054218406</v>
+        <v>8.309060335511052</v>
       </c>
       <c r="E23">
-        <v>6.803891985516189</v>
+        <v>12.23443538571982</v>
       </c>
       <c r="F23">
-        <v>22.54835902232206</v>
+        <v>33.18203145883854</v>
       </c>
       <c r="I23">
-        <v>12.37520735437862</v>
+        <v>24.06049036950455</v>
       </c>
       <c r="J23">
-        <v>5.143172508480136</v>
+        <v>9.506307682613469</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.251688823991595</v>
+        <v>11.72566186806247</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.91256356437839</v>
+        <v>25.33038834964443</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11411301843846</v>
+        <v>20.87634235589037</v>
       </c>
       <c r="C24">
-        <v>16.0393662758375</v>
+        <v>10.13662735161579</v>
       </c>
       <c r="D24">
-        <v>5.599885284093495</v>
+        <v>8.287845914984421</v>
       </c>
       <c r="E24">
-        <v>6.87549598258467</v>
+        <v>12.28289813263023</v>
       </c>
       <c r="F24">
-        <v>22.04058077948506</v>
+        <v>33.32913211468018</v>
       </c>
       <c r="I24">
-        <v>12.86033752489654</v>
+        <v>24.29144101399576</v>
       </c>
       <c r="J24">
-        <v>5.260367171160618</v>
+        <v>9.544466529483033</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.814114546241999</v>
+        <v>11.65553438624496</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.75670035150091</v>
+        <v>25.48312956556341</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35812390922946</v>
+        <v>19.76972465227881</v>
       </c>
       <c r="C25">
-        <v>14.72794654747822</v>
+        <v>9.465311364035953</v>
       </c>
       <c r="D25">
-        <v>5.383878682274941</v>
+        <v>8.267742109468399</v>
       </c>
       <c r="E25">
-        <v>6.965245690355227</v>
+        <v>12.34052151164523</v>
       </c>
       <c r="F25">
-        <v>21.61001280877666</v>
+        <v>33.52264338063225</v>
       </c>
       <c r="I25">
-        <v>13.45627784626843</v>
+        <v>24.56194308863822</v>
       </c>
       <c r="J25">
-        <v>5.390505583965223</v>
+        <v>9.588580795133092</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.32828541862575</v>
+        <v>11.58396128793392</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.68642656115852</v>
+        <v>25.67317611036759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_73/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.91491841113799</v>
+        <v>24.13997182844914</v>
       </c>
       <c r="C2">
-        <v>8.934646501143355</v>
+        <v>13.68555941304385</v>
       </c>
       <c r="D2">
-        <v>8.255381932655293</v>
+        <v>5.224514808835712</v>
       </c>
       <c r="E2">
-        <v>12.38757432589063</v>
+        <v>7.041466551349279</v>
       </c>
       <c r="F2">
-        <v>33.69482902560634</v>
+        <v>21.38680860400853</v>
       </c>
       <c r="I2">
-        <v>24.77953575933487</v>
+        <v>13.94773125311363</v>
       </c>
       <c r="J2">
-        <v>9.623628999666686</v>
+        <v>5.489900393567593</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.53494986194531</v>
+        <v>7.9607252590972</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.83468950717231</v>
+        <v>15.70977017227824</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.31392817680902</v>
+        <v>22.51688189433118</v>
       </c>
       <c r="C3">
-        <v>8.553639185446668</v>
+        <v>12.93209561407518</v>
       </c>
       <c r="D3">
-        <v>8.248553358349806</v>
+        <v>5.116799005549733</v>
       </c>
       <c r="E3">
-        <v>12.42236024627969</v>
+        <v>7.099164269638661</v>
       </c>
       <c r="F3">
-        <v>33.82991092919634</v>
+        <v>21.29002178973688</v>
       </c>
       <c r="I3">
-        <v>24.93851085218991</v>
+        <v>14.3097349823789</v>
       </c>
       <c r="J3">
-        <v>9.64899625266407</v>
+        <v>5.559662106951306</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.50412389053924</v>
+        <v>7.706771278637293</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.95752624055029</v>
+        <v>15.76771529276547</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.93549525465844</v>
+        <v>21.46055402777282</v>
       </c>
       <c r="C4">
-        <v>8.30971540045676</v>
+        <v>12.4467511505777</v>
       </c>
       <c r="D4">
-        <v>8.245132061207691</v>
+        <v>5.050978342797424</v>
       </c>
       <c r="E4">
-        <v>12.4451525064107</v>
+        <v>7.137485320460163</v>
       </c>
       <c r="F4">
-        <v>33.92187426758482</v>
+        <v>21.25597124198319</v>
       </c>
       <c r="I4">
-        <v>25.04180605976765</v>
+        <v>14.54522201125632</v>
       </c>
       <c r="J4">
-        <v>9.665372723096034</v>
+        <v>5.603733052208614</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.48640380535873</v>
+        <v>7.548953238297849</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.03951817855495</v>
+        <v>15.82248981071087</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.77912295581067</v>
+        <v>21.01497711702435</v>
       </c>
       <c r="C5">
-        <v>8.207902639933087</v>
+        <v>12.24335618246874</v>
       </c>
       <c r="D5">
-        <v>8.24393306013755</v>
+        <v>5.024263485636597</v>
       </c>
       <c r="E5">
-        <v>12.45480160939279</v>
+        <v>7.153817202705194</v>
       </c>
       <c r="F5">
-        <v>33.96161145667694</v>
+        <v>21.24824059462729</v>
       </c>
       <c r="I5">
-        <v>25.0853296821204</v>
+        <v>14.64437061004793</v>
       </c>
       <c r="J5">
-        <v>9.67224826033255</v>
+        <v>5.622010660096146</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.47949057106103</v>
+        <v>7.484250340515823</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.07457817576491</v>
+        <v>15.84940335647289</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.7530336602512</v>
+        <v>20.94007385537576</v>
       </c>
       <c r="C6">
-        <v>8.190854204261546</v>
+        <v>12.20924697755993</v>
       </c>
       <c r="D6">
-        <v>8.24374579101697</v>
+        <v>5.019834827521792</v>
       </c>
       <c r="E6">
-        <v>12.45642566087164</v>
+        <v>7.156571988592521</v>
       </c>
       <c r="F6">
-        <v>33.96834614808487</v>
+        <v>21.24732094705382</v>
       </c>
       <c r="I6">
-        <v>25.09264313726597</v>
+        <v>14.66102289565212</v>
       </c>
       <c r="J6">
-        <v>9.673402155735683</v>
+        <v>5.625065077291607</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.4783613477644</v>
+        <v>7.473485466950653</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.08049924515217</v>
+        <v>15.8541428916352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.93339480742507</v>
+        <v>21.45460614171689</v>
       </c>
       <c r="C7">
-        <v>8.308351942563723</v>
+        <v>12.44403067314009</v>
       </c>
       <c r="D7">
-        <v>8.245115099118779</v>
+        <v>5.050617584011601</v>
       </c>
       <c r="E7">
-        <v>12.44528117483152</v>
+        <v>7.137702695351375</v>
       </c>
       <c r="F7">
-        <v>33.92240103093038</v>
+        <v>21.25584242277337</v>
       </c>
       <c r="I7">
-        <v>25.04238724358955</v>
+        <v>14.54654643335179</v>
       </c>
       <c r="J7">
-        <v>9.665464630331805</v>
+        <v>5.603978252044419</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.48630931911178</v>
+        <v>7.548082098245258</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.03998434463247</v>
+        <v>15.82283448966187</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.70977401060531</v>
+        <v>23.59267478810402</v>
       </c>
       <c r="C8">
-        <v>8.805402187622111</v>
+        <v>13.43053094011518</v>
       </c>
       <c r="D8">
-        <v>8.252868063862104</v>
+        <v>5.187325005212127</v>
       </c>
       <c r="E8">
-        <v>12.39927133039409</v>
+        <v>7.060752500259036</v>
       </c>
       <c r="F8">
-        <v>33.73952826208894</v>
+        <v>21.3480316045818</v>
       </c>
       <c r="I8">
-        <v>24.83317111780611</v>
+        <v>14.06971879202536</v>
       </c>
       <c r="J8">
-        <v>9.632209772939254</v>
+        <v>5.513701996679282</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.52407314941298</v>
+        <v>7.873602486362798</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.8756774466936</v>
+        <v>15.72562398645943</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.14910027797543</v>
+        <v>27.31556538852508</v>
       </c>
       <c r="C9">
-        <v>9.697246936768098</v>
+        <v>15.18170721811134</v>
       </c>
       <c r="D9">
-        <v>8.274138136974601</v>
+        <v>5.45675132071579</v>
       </c>
       <c r="E9">
-        <v>12.32039421650001</v>
+        <v>6.933398733637031</v>
       </c>
       <c r="F9">
-        <v>33.45282663768925</v>
+        <v>21.73997805762011</v>
       </c>
       <c r="I9">
-        <v>24.46796438094956</v>
+        <v>13.24676534289411</v>
       </c>
       <c r="J9">
-        <v>9.573323843198493</v>
+        <v>5.346136770194921</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.60751024282131</v>
+        <v>8.493620157934103</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.60579458203551</v>
+        <v>15.69781559260495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.14589348913645</v>
+        <v>29.77023469429198</v>
       </c>
       <c r="C10">
-        <v>10.29791472249717</v>
+        <v>16.35377804673874</v>
       </c>
       <c r="D10">
-        <v>8.293387824673513</v>
+        <v>5.654040059081336</v>
       </c>
       <c r="E10">
-        <v>12.26932443426499</v>
+        <v>6.85504497260813</v>
       </c>
       <c r="F10">
-        <v>33.28645215165177</v>
+        <v>22.16889147553561</v>
       </c>
       <c r="I10">
-        <v>24.2270738735035</v>
+        <v>12.72241557642785</v>
       </c>
       <c r="J10">
-        <v>9.533878090855264</v>
+        <v>5.228282903816434</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.67425736422477</v>
+        <v>8.934053703739481</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.4396738810173</v>
+        <v>15.79089232111261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.58441245985475</v>
+        <v>30.8273189707942</v>
       </c>
       <c r="C11">
-        <v>10.55867527605942</v>
+        <v>16.86186936766445</v>
       </c>
       <c r="D11">
-        <v>8.302914214878539</v>
+        <v>5.743368197923706</v>
       </c>
       <c r="E11">
-        <v>12.24757791702861</v>
+        <v>6.822909668137991</v>
       </c>
       <c r="F11">
-        <v>33.22046178794699</v>
+        <v>22.39687380125332</v>
       </c>
       <c r="I11">
-        <v>24.12343412451679</v>
+        <v>12.5045713396127</v>
       </c>
       <c r="J11">
-        <v>9.51675382584034</v>
+        <v>5.1756885275866</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.70574246609774</v>
+        <v>9.130469045953316</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.37114145514657</v>
+        <v>15.86085199115148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.74819509582464</v>
+        <v>31.21915365852757</v>
       </c>
       <c r="C12">
-        <v>10.65558005546374</v>
+        <v>17.05065785738763</v>
       </c>
       <c r="D12">
-        <v>8.306630672125207</v>
+        <v>5.777113165492695</v>
       </c>
       <c r="E12">
-        <v>12.23955609640403</v>
+        <v>6.811264115661753</v>
       </c>
       <c r="F12">
-        <v>33.19687360181626</v>
+        <v>22.48809061196827</v>
       </c>
       <c r="I12">
-        <v>24.08504278387209</v>
+        <v>12.42538104490093</v>
       </c>
       <c r="J12">
-        <v>9.510386571330375</v>
+        <v>5.15590821880153</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.71782070112405</v>
+        <v>9.20423403106744</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.34620657256542</v>
+        <v>15.89154987553529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.71302464548932</v>
+        <v>31.13513962521254</v>
       </c>
       <c r="C13">
-        <v>10.63479231789674</v>
+        <v>17.01015963362615</v>
       </c>
       <c r="D13">
-        <v>8.305825444816689</v>
+        <v>5.769849531490224</v>
       </c>
       <c r="E13">
-        <v>12.24127426834521</v>
+        <v>6.813748600111726</v>
       </c>
       <c r="F13">
-        <v>33.20189132640731</v>
+        <v>22.4682258379372</v>
       </c>
       <c r="I13">
-        <v>24.09327302402257</v>
+        <v>12.44228346965859</v>
       </c>
       <c r="J13">
-        <v>9.511752663873196</v>
+        <v>5.160162383547359</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.71521261431793</v>
+        <v>9.188375358420743</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.35153144160323</v>
+        <v>15.88474785621712</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.59793323374797</v>
+        <v>30.85972439368959</v>
       </c>
       <c r="C14">
-        <v>10.5666847850996</v>
+        <v>16.87747355363561</v>
       </c>
       <c r="D14">
-        <v>8.303217794804791</v>
+        <v>5.746146167838067</v>
       </c>
       <c r="E14">
-        <v>12.24691368864826</v>
+        <v>6.821940978826309</v>
       </c>
       <c r="F14">
-        <v>33.21849305850449</v>
+        <v>22.40427951494362</v>
       </c>
       <c r="I14">
-        <v>24.12025851283458</v>
+        <v>12.49798806734784</v>
       </c>
       <c r="J14">
-        <v>9.516227639609728</v>
+        <v>5.174058524817989</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.70673306672036</v>
+        <v>9.136550266357906</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.36906963955259</v>
+        <v>15.86329192729649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.52713658884095</v>
+        <v>30.68992598845757</v>
       </c>
       <c r="C15">
-        <v>10.52472620372483</v>
+        <v>16.79572874810925</v>
       </c>
       <c r="D15">
-        <v>8.301634681454495</v>
+        <v>5.731615942118219</v>
       </c>
       <c r="E15">
-        <v>12.2503957358686</v>
+        <v>6.827027792693189</v>
       </c>
       <c r="F15">
-        <v>33.22884474098317</v>
+        <v>22.36575111585497</v>
       </c>
       <c r="I15">
-        <v>24.13689923136725</v>
+        <v>12.5325493906053</v>
       </c>
       <c r="J15">
-        <v>9.518983955311858</v>
+        <v>5.182587710903759</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.70155917705179</v>
+        <v>9.1047247830898</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.37994486464943</v>
+        <v>15.85070405175913</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.11692354978585</v>
+        <v>29.69996213285289</v>
       </c>
       <c r="C16">
-        <v>10.28061821397793</v>
+        <v>16.32006737900026</v>
       </c>
       <c r="D16">
-        <v>8.292780599729348</v>
+        <v>5.648191941218381</v>
       </c>
       <c r="E16">
-        <v>12.27077546859635</v>
+        <v>6.857217270639292</v>
       </c>
       <c r="F16">
-        <v>33.29096044843546</v>
+        <v>22.15466761346035</v>
       </c>
       <c r="I16">
-        <v>24.23396657297815</v>
+        <v>12.73709541942677</v>
       </c>
       <c r="J16">
-        <v>9.535013650970969</v>
+        <v>5.231739684676453</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.67222181789633</v>
+        <v>8.921134052489446</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.4442946603559</v>
+        <v>15.78689626353066</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.86135177960076</v>
+        <v>29.07747042959413</v>
       </c>
       <c r="C17">
-        <v>10.12763408288384</v>
+        <v>16.02183003789306</v>
       </c>
       <c r="D17">
-        <v>8.287544870600696</v>
+        <v>5.59689072454486</v>
       </c>
       <c r="E17">
-        <v>12.28365787117881</v>
+        <v>6.876649110360701</v>
       </c>
       <c r="F17">
-        <v>33.3315543719741</v>
+        <v>22.03371111635285</v>
       </c>
       <c r="I17">
-        <v>24.29503641491029</v>
+        <v>12.86809446209215</v>
       </c>
       <c r="J17">
-        <v>9.545056926354379</v>
+        <v>5.262146395633113</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.65450750014825</v>
+        <v>8.807462320835828</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.48557701027143</v>
+        <v>15.75499533397444</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.71295533514533</v>
+        <v>28.71381746719684</v>
       </c>
       <c r="C18">
-        <v>10.03846851759531</v>
+        <v>15.84792989765045</v>
       </c>
       <c r="D18">
-        <v>8.284605959948788</v>
+        <v>5.567345283936407</v>
       </c>
       <c r="E18">
-        <v>12.291207328144</v>
+        <v>6.888154789182529</v>
       </c>
       <c r="F18">
-        <v>33.35581499631734</v>
+        <v>21.96722542169723</v>
       </c>
       <c r="I18">
-        <v>24.33072149140822</v>
+        <v>12.94536625286959</v>
       </c>
       <c r="J18">
-        <v>9.550910749540924</v>
+        <v>5.279732001434993</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.64442461047126</v>
+        <v>8.741712789995614</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.50998355900397</v>
+        <v>15.7392328368965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.66247484307321</v>
+        <v>28.58972380251701</v>
       </c>
       <c r="C19">
-        <v>10.00807856747031</v>
+        <v>15.78864503030686</v>
       </c>
       <c r="D19">
-        <v>8.283623403671186</v>
+        <v>5.557335805708856</v>
       </c>
       <c r="E19">
-        <v>12.29378747697715</v>
+        <v>6.892106365720002</v>
       </c>
       <c r="F19">
-        <v>33.3641856602067</v>
+        <v>21.94523929679072</v>
       </c>
       <c r="I19">
-        <v>24.34289990296447</v>
+        <v>12.97185047331191</v>
       </c>
       <c r="J19">
-        <v>9.55290602907375</v>
+        <v>5.285703058598798</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.64102908127452</v>
+        <v>8.719389374744408</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.51836074916314</v>
+        <v>15.73433281151418</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.88870352914691</v>
+        <v>29.14431583148454</v>
       </c>
       <c r="C20">
-        <v>10.14404126307671</v>
+        <v>16.05382244530986</v>
       </c>
       <c r="D20">
-        <v>8.288094726798887</v>
+        <v>5.602355955787181</v>
       </c>
       <c r="E20">
-        <v>12.28227204806392</v>
+        <v>6.874546375038948</v>
       </c>
       <c r="F20">
-        <v>33.32713863217816</v>
+        <v>22.04626662439249</v>
       </c>
       <c r="I20">
-        <v>24.28847753712066</v>
+        <v>12.8539479745935</v>
       </c>
       <c r="J20">
-        <v>9.543979816987532</v>
+        <v>5.258899637885172</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.6563822986307</v>
+        <v>8.819601377090265</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.48111387941864</v>
+        <v>15.75812186956694</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.631801064858</v>
+        <v>30.94084928512551</v>
       </c>
       <c r="C21">
-        <v>10.58673985928057</v>
+        <v>16.91654477253983</v>
       </c>
       <c r="D21">
-        <v>8.303980779516156</v>
+        <v>5.753110795883473</v>
       </c>
       <c r="E21">
-        <v>12.24525147418075</v>
+        <v>6.819520316464065</v>
       </c>
       <c r="F21">
-        <v>33.21357865302402</v>
+        <v>22.4229283462499</v>
       </c>
       <c r="I21">
-        <v>24.11230901947842</v>
+        <v>12.48153379221768</v>
       </c>
       <c r="J21">
-        <v>9.514910050770844</v>
+        <v>5.169973284887011</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.70921954166622</v>
+        <v>9.151789529757954</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.36389060886557</v>
+        <v>15.86947809135551</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.10414843704799</v>
+        <v>32.06572597965999</v>
       </c>
       <c r="C22">
-        <v>10.86533099663491</v>
+        <v>17.45931897790474</v>
       </c>
       <c r="D22">
-        <v>8.314997874977486</v>
+        <v>5.851153483837298</v>
       </c>
       <c r="E22">
-        <v>12.22229835810298</v>
+        <v>6.786618091430804</v>
       </c>
       <c r="F22">
-        <v>33.14752931260674</v>
+        <v>22.69763324116133</v>
       </c>
       <c r="I22">
-        <v>24.00215523971755</v>
+        <v>12.25757709324046</v>
       </c>
       <c r="J22">
-        <v>9.496594930592568</v>
+        <v>5.11264243302946</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.7446553746864</v>
+        <v>9.365302902984345</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.29320774303743</v>
+        <v>15.96687166081898</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.85330431492748</v>
+        <v>31.46983033799773</v>
       </c>
       <c r="C23">
-        <v>10.71763690784685</v>
+        <v>17.1715570592283</v>
       </c>
       <c r="D23">
-        <v>8.309060335511052</v>
+        <v>5.798877054218321</v>
       </c>
       <c r="E23">
-        <v>12.23443538571982</v>
+        <v>6.803891985516016</v>
       </c>
       <c r="F23">
-        <v>33.18203145883854</v>
+        <v>22.54835902232206</v>
       </c>
       <c r="I23">
-        <v>24.06049036950455</v>
+        <v>12.37520735437866</v>
       </c>
       <c r="J23">
-        <v>9.506307682613469</v>
+        <v>5.143172508480105</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.72566186806247</v>
+        <v>9.251688823991541</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.33038834964443</v>
+        <v>15.91256356437844</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.87634235589037</v>
+        <v>29.11411301843848</v>
       </c>
       <c r="C24">
-        <v>10.13662735161579</v>
+        <v>16.03936627583753</v>
       </c>
       <c r="D24">
-        <v>8.287845914984421</v>
+        <v>5.599885284093565</v>
       </c>
       <c r="E24">
-        <v>12.28289813263023</v>
+        <v>6.875495982584735</v>
       </c>
       <c r="F24">
-        <v>33.32913211468018</v>
+        <v>22.04058077948487</v>
       </c>
       <c r="I24">
-        <v>24.29144101399576</v>
+        <v>12.86033752489633</v>
       </c>
       <c r="J24">
-        <v>9.544466529483033</v>
+        <v>5.26036717116055</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.65553438624496</v>
+        <v>8.814114546242005</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.48312956556341</v>
+        <v>15.75670035150075</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.76972465227881</v>
+        <v>26.35812390922946</v>
       </c>
       <c r="C25">
-        <v>9.465311364035953</v>
+        <v>14.72794654747815</v>
       </c>
       <c r="D25">
-        <v>8.267742109468399</v>
+        <v>5.383878682274917</v>
       </c>
       <c r="E25">
-        <v>12.34052151164523</v>
+        <v>6.965245690355279</v>
       </c>
       <c r="F25">
-        <v>33.52264338063225</v>
+        <v>21.61001280877676</v>
       </c>
       <c r="I25">
-        <v>24.56194308863822</v>
+        <v>13.45627784626855</v>
       </c>
       <c r="J25">
-        <v>9.588580795133092</v>
+        <v>5.390505583965289</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.58396128793392</v>
+        <v>8.328285418625748</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.67317611036759</v>
+        <v>15.68642656115863</v>
       </c>
     </row>
   </sheetData>
